--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_ĐLNguyenCuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_ĐLNguyenCuong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="30" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -278,10 +278,28 @@
     <t>Mất cấu hình thiết bị</t>
   </si>
   <si>
-    <t xml:space="preserve">Lock </t>
+    <t>Lock 125.212.203.114,15353</t>
   </si>
   <si>
-    <t>Hỏng IC giao tiếp, nâng cấp FW</t>
+    <t>Cấu hình lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Danh</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Hỏng IC giao tiếp, tín hiệu GSM chập chờn</t>
+  </si>
+  <si>
+    <t>Thay IC giao tiếp, nâng cấp FW, cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>25/11/2020</t>
   </si>
 </sst>
 </file>
@@ -504,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -716,30 +734,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -761,11 +755,38 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1087,8 +1108,8 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="53" style="22" customWidth="1"/>
+    <col min="9" max="9" width="38.85546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="61.5703125" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
     <col min="13" max="13" width="58" style="22" customWidth="1"/>
@@ -1105,43 +1126,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1186,58 +1207,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1262,24 +1283,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1288,7 +1309,9 @@
       <c r="B6" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" s="65" t="s">
         <v>51</v>
       </c>
@@ -1300,13 +1323,17 @@
         <v>69</v>
       </c>
       <c r="H6" s="65"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="88" t="s">
+        <v>87</v>
+      </c>
       <c r="J6" s="53" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K6" s="53"/>
       <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>86</v>
+      </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53"/>
       <c r="P6" s="53"/>
@@ -1315,7 +1342,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1346,7 +1373,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1375,7 +1402,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1431,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1433,7 +1460,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1462,7 +1489,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1491,7 +1518,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1522,7 +1549,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1551,7 +1578,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1580,7 +1607,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1636,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2843,10 +2870,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="74">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2875,8 +2902,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2902,8 +2929,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4190,6 +4217,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4200,16 +4237,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4220,8 +4247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4252,43 +4279,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4333,58 +4360,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4409,24 +4436,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4435,7 +4462,9 @@
       <c r="B6" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" s="65" t="s">
         <v>44</v>
       </c>
@@ -4457,16 +4486,26 @@
       <c r="L6" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>82</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4497,7 +4536,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4526,7 +4565,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4555,7 +4594,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4584,7 +4623,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4613,7 +4652,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4642,7 +4681,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4673,7 +4712,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4702,7 +4741,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4731,7 +4770,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4760,7 +4799,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4879,7 +4918,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5348,7 +5387,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5412,7 +5451,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5994,10 +6033,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="74">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6026,8 +6065,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6053,8 +6092,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7340,6 +7379,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7350,16 +7399,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7401,43 +7440,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7482,58 +7521,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7558,24 +7597,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7609,7 +7648,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7648,7 +7687,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7677,7 +7716,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7706,7 +7745,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7735,7 +7774,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7764,7 +7803,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7793,7 +7832,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7824,7 +7863,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7853,7 +7892,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7882,7 +7921,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7911,7 +7950,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9145,10 +9184,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="74">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>2</v>
       </c>
@@ -9177,8 +9216,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9204,8 +9243,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10491,6 +10530,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10501,16 +10550,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10552,43 +10591,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10633,58 +10672,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10709,24 +10748,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10752,7 +10791,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10783,7 +10822,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10812,7 +10851,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10841,7 +10880,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10870,7 +10909,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10899,7 +10938,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10928,7 +10967,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -10959,7 +10998,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10988,7 +11027,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11017,7 +11056,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11046,7 +11085,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12280,10 +12319,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="74">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12312,8 +12351,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12339,8 +12378,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13627,6 +13666,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -13637,16 +13686,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_ĐLNguyenCuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_ĐLNguyenCuong.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="30" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -734,6 +734,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,38 +782,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1126,43 +1126,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1207,58 +1207,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1283,24 +1283,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1312,7 +1312,7 @@
       <c r="C6" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="51" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="52">
@@ -1323,7 +1323,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="65"/>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="71" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="53" t="s">
@@ -1334,15 +1334,25 @@
       <c r="M6" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="N6" s="55">
+        <v>30000</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1373,7 +1383,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="81"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1412,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1431,7 +1441,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1460,7 +1470,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1489,7 +1499,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1518,7 +1528,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1549,7 +1559,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1578,7 +1588,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1607,7 +1617,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="81"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1636,7 +1646,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1787,7 +1797,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2096,7 +2106,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2288,7 +2298,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2870,10 +2880,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="83">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2902,8 +2912,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2929,8 +2939,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4217,6 +4227,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4227,16 +4247,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4247,8 +4257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="K3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4279,43 +4289,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4360,58 +4370,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4436,24 +4446,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4465,7 +4475,7 @@
       <c r="C6" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="52">
@@ -4505,7 +4515,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4536,7 +4546,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="81"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4565,7 +4575,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4594,7 +4604,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4623,7 +4633,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4652,7 +4662,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4681,7 +4691,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4712,7 +4722,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4741,7 +4751,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4770,7 +4780,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="81"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4799,7 +4809,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6033,10 +6043,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="83">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6065,8 +6075,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6092,8 +6102,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7379,6 +7389,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7389,16 +7409,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7440,43 +7450,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7521,58 +7531,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7597,24 +7607,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7648,7 +7658,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7687,7 +7697,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="81"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7716,7 +7726,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7745,7 +7755,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7774,7 +7784,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7803,7 +7813,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7832,7 +7842,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7863,7 +7873,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7892,7 +7902,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7921,7 +7931,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="81"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7950,7 +7960,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9184,10 +9194,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="83">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>2</v>
       </c>
@@ -9216,8 +9226,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9243,8 +9253,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10530,6 +10540,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10540,16 +10560,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10559,8 +10569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10591,43 +10601,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10672,58 +10682,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10748,50 +10758,76 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
+      <c r="B6" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="52">
+        <v>866762025783919</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="53"/>
       <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="M6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="55">
+        <v>30000</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10802,27 +10838,53 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="B7" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="52">
+        <v>867717030548482</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="I7" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="81"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10851,7 +10913,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10880,7 +10942,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10909,7 +10971,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10938,7 +11000,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10967,7 +11029,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -10998,7 +11060,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11027,7 +11089,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11056,7 +11118,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="81"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11085,7 +11147,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11204,7 +11266,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11236,7 +11298,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11545,7 +11607,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11673,7 +11735,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11737,7 +11799,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12004,7 +12066,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12196,7 +12258,7 @@
       </c>
       <c r="W52" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12319,10 +12381,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="83">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12351,8 +12413,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12378,8 +12440,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13666,6 +13728,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -13676,16 +13748,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_ĐLNguyenCuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_ĐLNguyenCuong.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="30" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -278,10 +278,28 @@
     <t>Mất cấu hình thiết bị</t>
   </si>
   <si>
-    <t xml:space="preserve">Lock </t>
+    <t>Lock 125.212.203.114,15353</t>
   </si>
   <si>
-    <t>Hỏng IC giao tiếp, nâng cấp FW</t>
+    <t>Cấu hình lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Danh</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Hỏng IC giao tiếp, tín hiệu GSM chập chờn</t>
+  </si>
+  <si>
+    <t>Thay IC giao tiếp, nâng cấp FW, cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>25/11/2020</t>
   </si>
 </sst>
 </file>
@@ -504,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,6 +733,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1073,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1087,8 +1108,8 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="53" style="22" customWidth="1"/>
+    <col min="9" max="9" width="38.85546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="61.5703125" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
     <col min="13" max="13" width="58" style="22" customWidth="1"/>
@@ -1105,43 +1126,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1186,58 +1207,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1262,24 +1283,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1288,8 +1309,10 @@
       <c r="B6" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="65" t="s">
+      <c r="C6" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="52">
@@ -1300,22 +1323,36 @@
         <v>69</v>
       </c>
       <c r="H6" s="65"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="71" t="s">
+        <v>87</v>
+      </c>
       <c r="J6" s="53" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K6" s="53"/>
       <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="M6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="55">
+        <v>30000</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1346,7 +1383,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="81"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1375,7 +1412,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1441,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1433,7 +1470,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1462,7 +1499,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1491,7 +1528,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1522,7 +1559,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1551,7 +1588,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1580,7 +1617,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="81"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1646,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1760,7 +1797,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2069,7 +2106,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2261,7 +2298,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2843,10 +2880,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="83">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2875,8 +2912,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2902,8 +2939,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4220,8 +4257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="K3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4252,43 +4289,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4333,58 +4370,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4409,24 +4446,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4435,8 +4472,10 @@
       <c r="B6" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="65" t="s">
+      <c r="C6" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="52">
@@ -4457,16 +4496,26 @@
       <c r="L6" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>82</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4497,7 +4546,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="81"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4526,7 +4575,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4555,7 +4604,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4584,7 +4633,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4613,7 +4662,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4642,7 +4691,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4673,7 +4722,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4702,7 +4751,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4731,7 +4780,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="81"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4760,7 +4809,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4879,7 +4928,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5348,7 +5397,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5412,7 +5461,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5994,10 +6043,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="83">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6026,8 +6075,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6053,8 +6102,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7401,43 +7450,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7482,58 +7531,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7558,24 +7607,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7609,7 +7658,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7648,7 +7697,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="81"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7677,7 +7726,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7706,7 +7755,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7735,7 +7784,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7764,7 +7813,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7793,7 +7842,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7824,7 +7873,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7853,7 +7902,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7882,7 +7931,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="81"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7911,7 +7960,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9145,10 +9194,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="83">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>2</v>
       </c>
@@ -9177,8 +9226,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9204,8 +9253,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10520,8 +10569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10552,43 +10601,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10633,58 +10682,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10709,50 +10758,76 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
+      <c r="B6" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="52">
+        <v>866762025783919</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="53"/>
       <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="M6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="55">
+        <v>30000</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10763,27 +10838,53 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="B7" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="52">
+        <v>867717030548482</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="I7" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="81"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10812,7 +10913,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10841,7 +10942,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10870,7 +10971,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10899,7 +11000,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10928,7 +11029,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -10959,7 +11060,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10988,7 +11089,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11017,7 +11118,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="81"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11046,7 +11147,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11165,7 +11266,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11197,7 +11298,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11506,7 +11607,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11634,7 +11735,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11698,7 +11799,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11965,7 +12066,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12157,7 +12258,7 @@
       </c>
       <c r="W52" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12280,10 +12381,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="83">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12312,8 +12413,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12339,8 +12440,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
